--- a/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
+++ b/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>作業項目</t>
     <rPh sb="0" eb="2">
@@ -901,6 +901,84 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表の見方</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※印は、必須ではないため、他の必須な作業が手伝える場合はそうする。</t>
+    <rPh sb="1" eb="2">
+      <t>ジルシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テツダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日にちごとに4人分の作業を割り当てているが、その日、どの番号の作業に入るかは、その日の始めに決める。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1286,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A87" sqref="A86:M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2780,7 +2858,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -2789,13 +2867,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>44</v>
       </c>
       <c r="C82">
         <f>ROUNDUP((C81/4),0)</f>
         <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
+++ b/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
@@ -1366,14 +1366,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A87" sqref="A86:M87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="41.75" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="4" max="4" width="5.125" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>

--- a/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
+++ b/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>作業項目</t>
     <rPh sb="0" eb="2">
@@ -979,6 +979,13 @@
     </rPh>
     <rPh sb="46" eb="47">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※実施(④)</t>
+    <rPh sb="1" eb="3">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1367,7 +1374,7 @@
   <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2827,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="P78" s="2"/>
     </row>

--- a/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
+++ b/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
@@ -1371,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N79" sqref="N79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80:N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2883,31 +2883,31 @@
         <v>9</v>
       </c>
     </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+      <c r="A85" t="s">
         <v>92</v>
       </c>
     </row>

--- a/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
+++ b/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GCLUC2019\GameProject\広島校高松校合同チーム\文書関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GCLUC2019(新しいフォルダ)\GameProject\広島校高松校合同チーム\文書関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -994,7 +994,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,8 +1027,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,8 +1048,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1064,8 +1077,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,8 +1103,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,11 +1120,18 @@
     <xf numFmtId="56" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="説明文" xfId="2" builtinId="53"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1373,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80:N82"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1463,7 +1501,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1480,7 +1518,10 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1497,7 +1538,8 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1514,7 +1556,9 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1574,7 +1618,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1591,7 +1635,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1608,7 +1653,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1625,7 +1671,9 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1642,7 +1690,10 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1677,7 +1728,8 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1694,7 +1746,15 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="N16" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1711,7 +1771,9 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1728,7 +1790,9 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1831,7 +1895,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="J24" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2037,7 +2105,8 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2054,7 +2123,8 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2071,7 +2141,9 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="H36" t="s">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2088,10 +2160,12 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="H37" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2193,7 +2267,10 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="I43" t="s">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2483,7 +2560,7 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2500,7 +2577,7 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2610,7 +2687,7 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2661,7 +2738,12 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="K68" t="s">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2747,7 +2829,7 @@
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2764,7 +2846,10 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="I74" t="s">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2781,7 +2866,10 @@
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="I75" t="s">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2798,7 +2886,11 @@
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="J76" t="s">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4" t="s">
         <v>50</v>
       </c>
     </row>

--- a/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
+++ b/広島校高松校合同チーム/文書関連/プログラム作業チャート.xlsx
@@ -994,7 +994,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,8 +1027,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,8 +1048,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1064,8 +1077,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,8 +1103,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,11 +1120,18 @@
     <xf numFmtId="56" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="説明文" xfId="2" builtinId="53"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1373,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80:N82"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1463,7 +1501,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1480,7 +1518,10 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1497,7 +1538,8 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1514,7 +1556,9 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1574,7 +1618,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1591,7 +1635,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1608,7 +1653,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1625,7 +1671,9 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1642,7 +1690,10 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1677,7 +1728,8 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1694,7 +1746,15 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="N16" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1711,7 +1771,9 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1728,7 +1790,9 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1762,7 +1826,10 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1831,7 +1898,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="J24" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1848,7 +1919,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="J25" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2037,7 +2112,8 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2054,7 +2130,8 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2071,7 +2148,9 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="H36" t="s">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2088,10 +2167,12 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="H37" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2193,7 +2274,10 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="I43" t="s">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2483,7 +2567,7 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2500,7 +2584,7 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2610,7 +2694,7 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2661,7 +2745,12 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="K68" t="s">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2747,7 +2836,7 @@
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2764,7 +2853,10 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="I74" t="s">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2781,7 +2873,10 @@
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="I75" t="s">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2798,7 +2893,11 @@
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="J76" t="s">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4" t="s">
         <v>50</v>
       </c>
     </row>
